--- a/Shi-Gi Chance/Assets/Database/HouseData/HouseData.xlsx
+++ b/Shi-Gi Chance/Assets/Database/HouseData/HouseData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A575B03-1580-45E8-9FF9-4FD9E2C2E37D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F93F62-BE53-4B26-93DC-DC7AF83DC289}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,13 +401,14 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -481,8 +482,8 @@
         <v>","Icon":"</v>
       </c>
       <c r="R2" t="str">
-        <f>B2</f>
-        <v>House</v>
+        <f>CONCATENATE("Icon/",B2)</f>
+        <v>Icon/House</v>
       </c>
       <c r="S2" t="str">
         <f>S1</f>

--- a/Shi-Gi Chance/Assets/Database/HouseData/HouseData.xlsx
+++ b/Shi-Gi Chance/Assets/Database/HouseData/HouseData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F93F62-BE53-4B26-93DC-DC7AF83DC289}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B3029-49A9-4894-A650-3A999699B25F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要 金錢x0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>House</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,61 @@
   </si>
   <si>
     <t>,"Title":"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海砂屋</t>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concrete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噴水池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵皮屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白木屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置 一級房屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodHouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,12 +147,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,14 +179,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -398,25 +468,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="81.625" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9" customWidth="1"/>
+    <col min="21" max="21" width="9.625" customWidth="1"/>
+    <col min="22" max="22" width="46.625" customWidth="1"/>
+    <col min="23" max="23" width="4.625" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -424,70 +502,2007 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="str">
-        <f>K1</f>
-        <v>{"ID":</v>
-      </c>
-      <c r="L2">
-        <f>A2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" t="str">
-        <f>M1</f>
-        <v>,"Title":"</v>
-      </c>
-      <c r="N2" t="str">
-        <f>C2</f>
-        <v>一級房屋</v>
-      </c>
-      <c r="O2" t="str">
-        <f>O1</f>
-        <v>","Document":"</v>
-      </c>
-      <c r="P2" t="str">
-        <f>D2</f>
-        <v>需要 金錢x0</v>
+      <c r="D2" t="str">
+        <f>CONCATENATE("需要 金錢×",LEFT(F2&amp;"   ",6),"木頭×",LEFT(G2&amp;"   ",6),"\n金屬×",LEFT(H2&amp;"   ",6),"水泥×",LEFT(I2&amp;"   ",6))</f>
+        <v xml:space="preserve">需要 金錢×100   木頭×20   \n金屬×20   水泥×20   </v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
       </c>
       <c r="Q2" t="str">
         <f>Q1</f>
-        <v>","Icon":"</v>
-      </c>
-      <c r="R2" t="str">
-        <f>CONCATENATE("Icon/",B2)</f>
-        <v>Icon/House</v>
+        <v>{"ID":</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R31" si="0">A2</f>
+        <v>0</v>
       </c>
       <c r="S2" t="str">
         <f>S1</f>
-        <v>"}</v>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:T31" si="1">C2</f>
+        <v>一級房屋</v>
+      </c>
+      <c r="U2" t="str">
+        <f>U1</f>
+        <v>","Document":"</v>
+      </c>
+      <c r="V2" t="str">
+        <f>CONCATENATE(D2,"\n",E2)</f>
+        <v>需要 金錢×100   木頭×20   \n金屬×20   水泥×20   \n</v>
+      </c>
+      <c r="W2" t="str">
+        <f>W1</f>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X2" t="str">
+        <f t="shared" ref="X2:X31" si="2">CONCATENATE("Icon/",B2)</f>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>Y1</f>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D31" si="3">CONCATENATE("需要 金錢×",LEFT(F3&amp;"   ",6),"木頭×",LEFT(G3&amp;"   ",6),"\n金屬×",LEFT(H3&amp;"   ",6),"水泥×",LEFT(I3&amp;"   ",6))</f>
+        <v xml:space="preserve">需要 金錢×10   木頭×0   \n金屬×0   水泥×1   </v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P4" si="4">IF(P4="","]",",")</f>
+        <v>,</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>Q2</f>
+        <v>{"ID":</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S3" t="str">
+        <f>S2</f>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="1"/>
+        <v>海砂屋</v>
+      </c>
+      <c r="U3" t="str">
+        <f>U2</f>
+        <v>","Document":"</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V31" si="5">CONCATENATE(D3,"\n",E3)</f>
+        <v>需要 金錢×10   木頭×0   \n金屬×0   水泥×1   \n</v>
+      </c>
+      <c r="W3" t="str">
+        <f>W2</f>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/SandHouse</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>Y2</f>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A28" si="6">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×10   木頭×0   \n金屬×40   水泥×0   </v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="4"/>
+        <v>,</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>Q3</f>
+        <v>{"ID":</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S4" t="str">
+        <f>S3</f>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="1"/>
+        <v>鐵皮屋</v>
+      </c>
+      <c r="U4" t="str">
+        <f>U3</f>
+        <v>","Document":"</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×10   木頭×0   \n金屬×40   水泥×0   \n</v>
+      </c>
+      <c r="W4" t="str">
+        <f>W3</f>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/IronHouse</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>Y3</f>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×10   木頭×40   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P32" si="7">IF(P6="","]",",")</f>
+        <v>,</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q31" si="8">Q4</f>
+        <v>{"ID":</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" ref="S5:S31" si="9">S4</f>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="1"/>
+        <v>白木屋</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U31" si="10">U4</f>
+        <v>","Document":"</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×10   木頭×40   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" ref="W5:W31" si="11">W4</f>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/WoodHouse</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" ref="Y5:Y31" si="12">Y4</f>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×1000  木頭×500   \n金屬×500   水泥×500   </v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>500</v>
+      </c>
+      <c r="H12" s="1">
+        <v>500</v>
+      </c>
+      <c r="I12" s="1">
+        <v>500</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="1"/>
+        <v>教堂</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×1000  木頭×500   \n金屬×500   水泥×500   \n前置 一級房屋</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×250   木頭×0   \n金屬×50   水泥×500   </v>
+      </c>
+      <c r="F22" s="2">
+        <v>250</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>50</v>
+      </c>
+      <c r="I22" s="2">
+        <v>500</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="1"/>
+        <v>噴水池</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×250   木頭×0   \n金屬×50   水泥×500   \n</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" ref="A29:A31" si="13">A28+1</f>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="str">
+        <f>CONCATENATE("需要 金錢×",LEFT(F30&amp;"   ",6),"木頭×",LEFT(G30&amp;"   ",6),"\n金屬×",LEFT(H30&amp;"   ",6),"水泥×",LEFT(I30&amp;"   ",6))</f>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>,</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="8"/>
+        <v>{"ID":</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="9"/>
+        <v>,"Title":"</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="10"/>
+        <v>","Document":"</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="5"/>
+        <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="11"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="2"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="12"/>
+        <v>"}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>]</v>
       </c>
     </row>
   </sheetData>

--- a/Shi-Gi Chance/Assets/Database/HouseData/HouseData.xlsx
+++ b/Shi-Gi Chance/Assets/Database/HouseData/HouseData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B3029-49A9-4894-A650-3A999699B25F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8409252D-69D8-4B8E-A98F-6475518ABC4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>","Document":"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,6 +120,38 @@
   </si>
   <si>
     <t>WoodHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fountain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Church</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>","Coin":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,"Wood":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,"Metal":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,"Concrete":</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,33 +496,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:AG32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="81.625" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="81.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="9.625" customWidth="1"/>
-    <col min="22" max="22" width="46.625" customWidth="1"/>
-    <col min="23" max="23" width="4.625" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="46.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -503,39 +531,60 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>4</v>
       </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
       </c>
       <c r="U1" t="s">
         <v>5</v>
       </c>
       <c r="W1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
       </c>
       <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -557,7 +606,7 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q2" t="str">
         <f>Q1</f>
@@ -572,7 +621,7 @@
         <v>,"Title":"</v>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2:T31" si="1">C2</f>
+        <f>IF(C2="","NULL",C2)</f>
         <v>一級房屋</v>
       </c>
       <c r="U2" t="str">
@@ -588,27 +637,59 @@
         <v>","Icon":"</v>
       </c>
       <c r="X2" t="str">
-        <f t="shared" ref="X2:X31" si="2">CONCATENATE("Icon/",B2)</f>
+        <f t="shared" ref="X2:X31" si="1">CONCATENATE("Icon/",B2)</f>
         <v>Icon/House</v>
       </c>
       <c r="Y2" t="str">
         <f>Y1</f>
-        <v>"}</v>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z2">
+        <f>F2</f>
+        <v>100</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>AA1</f>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB2">
+        <f>G2</f>
+        <v>20</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>AC1</f>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD2">
+        <f>H2</f>
+        <v>20</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>AE1</f>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF2">
+        <f>I2</f>
+        <v>20</v>
+      </c>
+      <c r="AG2" t="str">
+        <f>AG1</f>
+        <v>}</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D31" si="3">CONCATENATE("需要 金錢×",LEFT(F3&amp;"   ",6),"木頭×",LEFT(G3&amp;"   ",6),"\n金屬×",LEFT(H3&amp;"   ",6),"水泥×",LEFT(I3&amp;"   ",6))</f>
+        <f t="shared" ref="D3:D31" si="2">CONCATENATE("需要 金錢×",LEFT(F3&amp;"   ",6),"木頭×",LEFT(G3&amp;"   ",6),"\n金屬×",LEFT(H3&amp;"   ",6),"水泥×",LEFT(I3&amp;"   ",6))</f>
         <v xml:space="preserve">需要 金錢×10   木頭×0   \n金屬×0   水泥×1   </v>
       </c>
       <c r="F3">
@@ -624,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P4" si="4">IF(P4="","]",",")</f>
+        <f t="shared" ref="P3:P4" si="3">IF(P4="","]",",")</f>
         <v>,</v>
       </c>
       <c r="Q3" t="str">
@@ -640,7 +721,7 @@
         <v>,"Title":"</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T3:T31" si="4">IF(C3="","NULL",C3)</f>
         <v>海砂屋</v>
       </c>
       <c r="U3" t="str">
@@ -656,27 +737,59 @@
         <v>","Icon":"</v>
       </c>
       <c r="X3" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/SandHouse</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" ref="Y3:Y31" si="6">Y2</f>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z31" si="7">F3</f>
+        <v>10</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3:AA31" si="8">AA2</f>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB31" si="9">G3</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" ref="AC3:AC31" si="10">AC2</f>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD31" si="11">H3</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" t="str">
+        <f t="shared" ref="AE3:AE31" si="12">AE2</f>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF31" si="13">I3</f>
+        <v>1</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>AG2</f>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A28" si="14">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/SandHouse</v>
-      </c>
-      <c r="Y3" t="str">
-        <f>Y2</f>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A28" si="6">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×10   木頭×0   \n金屬×40   水泥×0   </v>
       </c>
       <c r="F4">
@@ -692,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>,</v>
       </c>
       <c r="Q4" t="str">
@@ -708,7 +821,7 @@
         <v>,"Title":"</v>
       </c>
       <c r="T4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>鐵皮屋</v>
       </c>
       <c r="U4" t="str">
@@ -724,27 +837,59 @@
         <v>","Icon":"</v>
       </c>
       <c r="X4" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/IronHouse</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" t="str">
+        <f>AG3</f>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/IronHouse</v>
-      </c>
-      <c r="Y4" t="str">
-        <f>Y3</f>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×10   木頭×40   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F5">
@@ -760,11 +905,11 @@
         <v>0</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ref="P5:P32" si="7">IF(P6="","]",",")</f>
+        <f t="shared" ref="P5:P32" si="15">IF(P6="","]",",")</f>
         <v>,</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" ref="Q5:Q31" si="8">Q4</f>
+        <f t="shared" ref="Q5:Q31" si="16">Q4</f>
         <v>{"ID":</v>
       </c>
       <c r="R5">
@@ -772,15 +917,15 @@
         <v>3</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" ref="S5:S31" si="9">S4</f>
+        <f t="shared" ref="S5:S31" si="17">S4</f>
         <v>,"Title":"</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>白木屋</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ref="U5:U31" si="10">U4</f>
+        <f t="shared" ref="U5:U31" si="18">U4</f>
         <v>","Document":"</v>
       </c>
       <c r="V5" t="str">
@@ -788,28 +933,60 @@
         <v>需要 金錢×10   木頭×40   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" ref="W5:W31" si="11">W4</f>
+        <f t="shared" ref="W5:W31" si="19">W4</f>
         <v>","Icon":"</v>
       </c>
       <c r="X5" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/WoodHouse</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" t="str">
+        <f t="shared" ref="AG5:AG31" si="20">AG4</f>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/WoodHouse</v>
-      </c>
-      <c r="Y5" t="str">
-        <f t="shared" ref="Y5:Y31" si="12">Y4</f>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F6">
@@ -825,11 +1002,11 @@
         <v>0</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R6">
@@ -837,15 +1014,15 @@
         <v>4</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T6" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V6" t="str">
@@ -853,28 +1030,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W6" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X6" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y6" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F7">
@@ -890,11 +1099,11 @@
         <v>0</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R7">
@@ -902,15 +1111,15 @@
         <v>5</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T7" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V7" t="str">
@@ -918,28 +1127,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W7" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X7" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F8">
@@ -955,11 +1196,11 @@
         <v>0</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R8">
@@ -967,15 +1208,15 @@
         <v>6</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T8" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V8" t="str">
@@ -983,28 +1224,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W8" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X8" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F9">
@@ -1020,11 +1293,11 @@
         <v>0</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R9">
@@ -1032,15 +1305,15 @@
         <v>7</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T9" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V9" t="str">
@@ -1048,28 +1321,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W9" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X9" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y9" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F10">
@@ -1085,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R10">
@@ -1097,15 +1402,15 @@
         <v>8</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T10" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V10" t="str">
@@ -1113,28 +1418,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W10" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X10" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F11">
@@ -1150,11 +1487,11 @@
         <v>0</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R11">
@@ -1162,15 +1499,15 @@
         <v>9</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T11" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V11" t="str">
@@ -1178,35 +1515,67 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W11" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X11" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y11" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×1000  木頭×500   \n金屬×500   水泥×500   </v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>1000</v>
@@ -1221,11 +1590,11 @@
         <v>500</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R12">
@@ -1233,15 +1602,15 @@
         <v>10</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>教堂</v>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V12" t="str">
@@ -1249,28 +1618,60 @@
         <v>需要 金錢×1000  木頭×500   \n金屬×500   水泥×500   \n前置 一級房屋</v>
       </c>
       <c r="W12" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/Church</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X12" t="str">
+        <v>500</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="13"/>
+        <v>500</v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y12" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F13">
@@ -1286,11 +1687,11 @@
         <v>0</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R13">
@@ -1298,15 +1699,15 @@
         <v>11</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T13" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V13" t="str">
@@ -1314,28 +1715,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W13" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X13" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y13" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F14">
@@ -1351,11 +1784,11 @@
         <v>0</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R14">
@@ -1363,15 +1796,15 @@
         <v>12</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T14" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V14" t="str">
@@ -1379,28 +1812,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W14" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X14" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y14" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F15">
@@ -1416,11 +1881,11 @@
         <v>0</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R15">
@@ -1428,15 +1893,15 @@
         <v>13</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T15" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V15" t="str">
@@ -1444,28 +1909,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W15" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X15" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y15" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F16">
@@ -1481,11 +1978,11 @@
         <v>0</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R16">
@@ -1493,15 +1990,15 @@
         <v>14</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T16" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V16" t="str">
@@ -1509,28 +2006,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W16" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X16" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y16" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F17">
@@ -1546,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R17">
@@ -1558,15 +2087,15 @@
         <v>15</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T17" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V17" t="str">
@@ -1574,28 +2103,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W17" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X17" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y17" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F18">
@@ -1611,11 +2172,11 @@
         <v>0</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R18">
@@ -1623,15 +2184,15 @@
         <v>16</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T18" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V18" t="str">
@@ -1639,28 +2200,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W18" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X18" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y18" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F19">
@@ -1676,11 +2269,11 @@
         <v>0</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R19">
@@ -1688,15 +2281,15 @@
         <v>17</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T19" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V19" t="str">
@@ -1704,28 +2297,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W19" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X19" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F20">
@@ -1741,11 +2366,11 @@
         <v>0</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R20">
@@ -1753,15 +2378,15 @@
         <v>18</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T20" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V20" t="str">
@@ -1769,28 +2394,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W20" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X20" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y20" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F21">
@@ -1806,11 +2463,11 @@
         <v>0</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R21">
@@ -1818,15 +2475,15 @@
         <v>19</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T21" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U21" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V21" t="str">
@@ -1834,31 +2491,63 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W21" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X21" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y21" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×250   木頭×0   \n金屬×50   水泥×500   </v>
       </c>
       <c r="F22" s="2">
@@ -1874,11 +2563,11 @@
         <v>500</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R22">
@@ -1886,15 +2575,15 @@
         <v>20</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>噴水池</v>
       </c>
       <c r="U22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V22" t="str">
@@ -1902,28 +2591,60 @@
         <v>需要 金錢×250   木頭×0   \n金屬×50   水泥×500   \n</v>
       </c>
       <c r="W22" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/Fountain</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X22" t="str">
+        <v>50</v>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="13"/>
+        <v>500</v>
+      </c>
+      <c r="AG22" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F23">
@@ -1939,11 +2660,11 @@
         <v>0</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R23">
@@ -1951,15 +2672,15 @@
         <v>21</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T23" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U23" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V23" t="str">
@@ -1967,28 +2688,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W23" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X23" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F24">
@@ -2004,11 +2757,11 @@
         <v>0</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R24">
@@ -2016,15 +2769,15 @@
         <v>22</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T24" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V24" t="str">
@@ -2032,28 +2785,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W24" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X24" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F25">
@@ -2069,11 +2854,11 @@
         <v>0</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R25">
@@ -2081,15 +2866,15 @@
         <v>23</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T25" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U25" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V25" t="str">
@@ -2097,28 +2882,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W25" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X25" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y25" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F26">
@@ -2134,11 +2951,11 @@
         <v>0</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R26">
@@ -2146,15 +2963,15 @@
         <v>24</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T26" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U26" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V26" t="str">
@@ -2162,28 +2979,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W26" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X26" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y26" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F27">
@@ -2199,11 +3048,11 @@
         <v>0</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R27">
@@ -2211,15 +3060,15 @@
         <v>25</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T27" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U27" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V27" t="str">
@@ -2227,28 +3076,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W27" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X27" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y27" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F28">
@@ -2264,11 +3145,11 @@
         <v>0</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R28">
@@ -2276,15 +3157,15 @@
         <v>26</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T28" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V28" t="str">
@@ -2292,28 +3173,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W28" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X28" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ref="A29:A31" si="21">A28+1</f>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y28" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" ref="A29:A31" si="13">A28+1</f>
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F29">
@@ -2329,11 +3242,11 @@
         <v>0</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R29">
@@ -2341,15 +3254,15 @@
         <v>27</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T29" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V29" t="str">
@@ -2357,25 +3270,57 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W29" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X29" t="str">
-        <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y29" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="str">
         <f t="shared" si="12"/>
-        <v>"}</v>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="str">
         <f>CONCATENATE("需要 金錢×",LEFT(F30&amp;"   ",6),"木頭×",LEFT(G30&amp;"   ",6),"\n金屬×",LEFT(H30&amp;"   ",6),"水泥×",LEFT(I30&amp;"   ",6))</f>
@@ -2394,11 +3339,11 @@
         <v>0</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R30">
@@ -2406,15 +3351,15 @@
         <v>28</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T30" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U30" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V30" t="str">
@@ -2422,28 +3367,60 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W30" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X30" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="str">
+        <f t="shared" si="12"/>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y30" t="str">
-        <f t="shared" si="12"/>
-        <v>"}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="13"/>
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="3"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
       <c r="F31">
@@ -2459,11 +3436,11 @@
         <v>0</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>,</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>{"ID":</v>
       </c>
       <c r="R31">
@@ -2471,15 +3448,15 @@
         <v>29</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="T31" t="str">
+        <f t="shared" si="4"/>
+        <v>NULL</v>
       </c>
       <c r="U31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>","Document":"</v>
       </c>
       <c r="V31" t="str">
@@ -2487,21 +3464,53 @@
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
       <c r="W31" t="str">
+        <f t="shared" si="19"/>
+        <v>","Icon":"</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="1"/>
+        <v>Icon/House</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="6"/>
+        <v>","Coin":</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="8"/>
+        <v>,"Wood":</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="10"/>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="11"/>
-        <v>","Icon":"</v>
-      </c>
-      <c r="X31" t="str">
-        <f t="shared" si="2"/>
-        <v>Icon/House</v>
-      </c>
-      <c r="Y31" t="str">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="str">
         <f t="shared" si="12"/>
-        <v>"}</v>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" t="str">
+        <f t="shared" si="20"/>
+        <v>}</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="P32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>]</v>
       </c>
     </row>

--- a/Shi-Gi Chance/Assets/Database/HouseData/HouseData.xlsx
+++ b/Shi-Gi Chance/Assets/Database/HouseData/HouseData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8409252D-69D8-4B8E-A98F-6475518ABC4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D7E9E-3E4C-4B2E-AF1C-7F7B64F3062A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前置 一級房屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SandHouse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,7 +147,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>}</t>
+    <t>BuildOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前置 </t>
+  </si>
+  <si>
+    <t>,"BuildOn":"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,28 +503,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:AG32"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="81.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" customWidth="1"/>
-    <col min="22" max="22" width="46.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="46.5703125" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,56 +538,62 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -590,14 +604,11 @@
         <v>3</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("需要 金錢×",LEFT(F2&amp;"   ",6),"木頭×",LEFT(G2&amp;"   ",6),"\n金屬×",LEFT(H2&amp;"   ",6),"水泥×",LEFT(I2&amp;"   ",6))</f>
+        <f>CONCATENATE("需要 金錢×",LEFT(G2&amp;"   ",6),"木頭×",LEFT(H2&amp;"   ",6),"\n金屬×",LEFT(I2&amp;"   ",6),"水泥×",LEFT(J2&amp;"   ",6))</f>
         <v xml:space="preserve">需要 金錢×100   木頭×20   \n金屬×20   水泥×20   </v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>100</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
       </c>
       <c r="H2">
         <v>20</v>
@@ -605,185 +616,212 @@
       <c r="I2">
         <v>20</v>
       </c>
-      <c r="P2" t="s">
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(F2="","空地",F2)</f>
+        <v>空地</v>
+      </c>
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="str">
-        <f>Q1</f>
+      <c r="R2" t="str">
+        <f>R1</f>
         <v>{"ID":</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2:R31" si="0">A2</f>
-        <v>0</v>
-      </c>
-      <c r="S2" t="str">
-        <f>S1</f>
+      <c r="S2">
+        <f t="shared" ref="S2:S31" si="0">A2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" t="str">
+        <f>T1</f>
         <v>,"Title":"</v>
       </c>
-      <c r="T2" t="str">
+      <c r="U2" t="str">
         <f>IF(C2="","NULL",C2)</f>
         <v>一級房屋</v>
       </c>
-      <c r="U2" t="str">
-        <f>U1</f>
+      <c r="V2" t="str">
+        <f>V1</f>
         <v>","Document":"</v>
       </c>
-      <c r="V2" t="str">
-        <f>CONCATENATE(D2,"\n",E2)</f>
+      <c r="W2" t="str">
+        <f>CONCATENATE(D2,"\n",E2,F2)</f>
         <v>需要 金錢×100   木頭×20   \n金屬×20   水泥×20   \n</v>
       </c>
-      <c r="W2" t="str">
-        <f>W1</f>
+      <c r="X2" t="str">
+        <f>X1</f>
         <v>","Icon":"</v>
       </c>
-      <c r="X2" t="str">
-        <f t="shared" ref="X2:X31" si="1">CONCATENATE("Icon/",B2)</f>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y31" si="1">CONCATENATE("Icon/",B2)</f>
         <v>Icon/House</v>
       </c>
-      <c r="Y2" t="str">
-        <f>Y1</f>
+      <c r="Z2" t="str">
+        <f>Z1</f>
         <v>","Coin":</v>
       </c>
-      <c r="Z2">
-        <f>F2</f>
+      <c r="AA2">
+        <f>G2</f>
         <v>100</v>
       </c>
-      <c r="AA2" t="str">
-        <f>AA1</f>
+      <c r="AB2" t="str">
+        <f>AB1</f>
         <v>,"Wood":</v>
       </c>
-      <c r="AB2">
-        <f>G2</f>
-        <v>20</v>
-      </c>
-      <c r="AC2" t="str">
-        <f>AC1</f>
-        <v>,"Metal":</v>
-      </c>
-      <c r="AD2">
+      <c r="AC2">
         <f>H2</f>
         <v>20</v>
       </c>
-      <c r="AE2" t="str">
-        <f>AE1</f>
-        <v>,"Concrete":</v>
-      </c>
-      <c r="AF2">
+      <c r="AD2" t="str">
+        <f>AD1</f>
+        <v>,"Metal":</v>
+      </c>
+      <c r="AE2">
         <f>I2</f>
         <v>20</v>
       </c>
-      <c r="AG2" t="str">
-        <f>AG1</f>
-        <v>}</v>
+      <c r="AF2" t="str">
+        <f>AF1</f>
+        <v>,"Concrete":</v>
+      </c>
+      <c r="AG2">
+        <f>J2</f>
+        <v>20</v>
+      </c>
+      <c r="AH2" t="str">
+        <f>AH1</f>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI2" t="str">
+        <f>K2</f>
+        <v>空地</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>AJ1</f>
+        <v>"}</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D31" si="2">CONCATENATE("需要 金錢×",LEFT(F3&amp;"   ",6),"木頭×",LEFT(G3&amp;"   ",6),"\n金屬×",LEFT(H3&amp;"   ",6),"水泥×",LEFT(I3&amp;"   ",6))</f>
+        <f t="shared" ref="D3:D31" si="2">CONCATENATE("需要 金錢×",LEFT(G3&amp;"   ",6),"木頭×",LEFT(H3&amp;"   ",6),"\n金屬×",LEFT(I3&amp;"   ",6),"水泥×",LEFT(J3&amp;"   ",6))</f>
         <v xml:space="preserve">需要 金錢×10   木頭×0   \n金屬×0   水泥×1   </v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P4" si="3">IF(P4="","]",",")</f>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K31" si="3">IF(F3="","空地",F3)</f>
+        <v>空地</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q4" si="4">IF(Q4="","]",",")</f>
         <v>,</v>
       </c>
-      <c r="Q3" t="str">
-        <f>Q2</f>
+      <c r="R3" t="str">
+        <f>R2</f>
         <v>{"ID":</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S3" t="str">
-        <f>S2</f>
+      <c r="T3" t="str">
+        <f>T2</f>
         <v>,"Title":"</v>
       </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T31" si="4">IF(C3="","NULL",C3)</f>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U31" si="5">IF(C3="","NULL",C3)</f>
         <v>海砂屋</v>
       </c>
-      <c r="U3" t="str">
-        <f>U2</f>
+      <c r="V3" t="str">
+        <f>V2</f>
         <v>","Document":"</v>
       </c>
-      <c r="V3" t="str">
-        <f t="shared" ref="V3:V31" si="5">CONCATENATE(D3,"\n",E3)</f>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W31" si="6">CONCATENATE(D3,"\n",E3,F3)</f>
         <v>需要 金錢×10   木頭×0   \n金屬×0   水泥×1   \n</v>
       </c>
-      <c r="W3" t="str">
-        <f>W2</f>
+      <c r="X3" t="str">
+        <f>X2</f>
         <v>","Icon":"</v>
       </c>
-      <c r="X3" t="str">
+      <c r="Y3" t="str">
         <f t="shared" si="1"/>
         <v>Icon/SandHouse</v>
       </c>
-      <c r="Y3" t="str">
-        <f t="shared" ref="Y3:Y31" si="6">Y2</f>
+      <c r="Z3" t="str">
+        <f t="shared" ref="Z3:Z31" si="7">Z2</f>
         <v>","Coin":</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z31" si="7">F3</f>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA31" si="8">G3</f>
         <v>10</v>
       </c>
-      <c r="AA3" t="str">
-        <f t="shared" ref="AA3:AA31" si="8">AA2</f>
+      <c r="AB3" t="str">
+        <f t="shared" ref="AB3:AB31" si="9">AB2</f>
         <v>,"Wood":</v>
       </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB31" si="9">G3</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" t="str">
-        <f t="shared" ref="AC3:AC31" si="10">AC2</f>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC31" si="10">H3</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" ref="AD3:AD31" si="11">AD2</f>
         <v>,"Metal":</v>
       </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD31" si="11">H3</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" t="str">
-        <f t="shared" ref="AE3:AE31" si="12">AE2</f>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE31" si="12">I3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" ref="AF3:AF31" si="13">AF2</f>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF31" si="13">I3</f>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG31" si="14">J3</f>
         <v>1</v>
       </c>
-      <c r="AG3" t="str">
-        <f>AG2</f>
-        <v>}</v>
+      <c r="AH3" t="str">
+        <f t="shared" ref="AH3:AH31" si="15">AH2</f>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI3" t="str">
+        <f t="shared" ref="AI3:AI31" si="16">K3</f>
+        <v>空地</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f>AJ2</f>
+        <v>"}</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A28" si="14">A3+1</f>
+        <f t="shared" ref="A4:A28" si="17">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -792,98 +830,110 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×10   木頭×0   \n金屬×40   水泥×0   </v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>40</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="str">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
-      <c r="Q4" t="str">
-        <f>Q3</f>
+      <c r="R4" t="str">
+        <f>R3</f>
         <v>{"ID":</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S4" t="str">
-        <f>S3</f>
+      <c r="T4" t="str">
+        <f>T3</f>
         <v>,"Title":"</v>
       </c>
-      <c r="T4" t="str">
-        <f t="shared" si="4"/>
+      <c r="U4" t="str">
+        <f t="shared" si="5"/>
         <v>鐵皮屋</v>
       </c>
-      <c r="U4" t="str">
-        <f>U3</f>
+      <c r="V4" t="str">
+        <f>V3</f>
         <v>","Document":"</v>
       </c>
-      <c r="V4" t="str">
-        <f t="shared" si="5"/>
+      <c r="W4" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×10   木頭×0   \n金屬×40   水泥×0   \n</v>
       </c>
-      <c r="W4" t="str">
-        <f>W3</f>
+      <c r="X4" t="str">
+        <f>X3</f>
         <v>","Icon":"</v>
       </c>
-      <c r="X4" t="str">
+      <c r="Y4" t="str">
         <f t="shared" si="1"/>
         <v>Icon/IronHouse</v>
       </c>
-      <c r="Y4" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z4" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z4">
-        <f t="shared" si="7"/>
+      <c r="AA4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AA4" t="str">
-        <f t="shared" si="8"/>
+      <c r="AB4" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" t="str">
+      <c r="AC4">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD4">
-        <f t="shared" si="11"/>
+      <c r="AE4">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="AE4" t="str">
-        <f t="shared" si="12"/>
+      <c r="AF4" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" t="str">
-        <f>AG3</f>
-        <v>}</v>
+      <c r="AG4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI4" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f>AJ3</f>
+        <v>"}</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -892,94 +942,106 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×10   木頭×40   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>40</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" ref="P5:P32" si="15">IF(P6="","]",",")</f>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q32" si="18">IF(Q6="","]",",")</f>
         <v>,</v>
       </c>
-      <c r="Q5" t="str">
-        <f t="shared" ref="Q5:Q31" si="16">Q4</f>
+      <c r="R5" t="str">
+        <f t="shared" ref="R5:R31" si="19">R4</f>
         <v>{"ID":</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S31" si="17">S4</f>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:T31" si="20">T4</f>
         <v>,"Title":"</v>
       </c>
-      <c r="T5" t="str">
-        <f t="shared" si="4"/>
+      <c r="U5" t="str">
+        <f t="shared" si="5"/>
         <v>白木屋</v>
       </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:U31" si="18">U4</f>
+      <c r="V5" t="str">
+        <f t="shared" ref="V5:V31" si="21">V4</f>
         <v>","Document":"</v>
       </c>
-      <c r="V5" t="str">
-        <f t="shared" si="5"/>
+      <c r="W5" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×10   木頭×40   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W5" t="str">
-        <f t="shared" ref="W5:W31" si="19">W4</f>
+      <c r="X5" t="str">
+        <f t="shared" ref="X5:X31" si="22">X4</f>
         <v>","Icon":"</v>
       </c>
-      <c r="X5" t="str">
+      <c r="Y5" t="str">
         <f t="shared" si="1"/>
         <v>Icon/WoodHouse</v>
       </c>
-      <c r="Y5" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z5" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="7"/>
+      <c r="AA5">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="8"/>
+      <c r="AB5" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB5">
-        <f t="shared" si="9"/>
+      <c r="AC5">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="AC5" t="str">
-        <f t="shared" si="10"/>
+      <c r="AD5" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" t="str">
+      <c r="AE5">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" t="str">
-        <f t="shared" ref="AG5:AG31" si="20">AG4</f>
-        <v>}</v>
+      <c r="AG5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI5" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f t="shared" ref="AJ5:AJ31" si="23">AJ4</f>
+        <v>"}</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -989,9 +1051,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1001,82 +1060,97 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="15"/>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="16"/>
+      <c r="R6" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S6" t="str">
-        <f t="shared" si="17"/>
+      <c r="T6" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T6" t="str">
-        <f t="shared" si="4"/>
+      <c r="U6" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U6" t="str">
-        <f t="shared" si="18"/>
+      <c r="V6" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V6" t="str">
-        <f t="shared" si="5"/>
+      <c r="W6" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W6" t="str">
-        <f t="shared" si="19"/>
+      <c r="X6" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X6" t="str">
+      <c r="Y6" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y6" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z6" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" t="str">
+      <c r="AA6">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" t="str">
+      <c r="AC6">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" t="str">
+      <c r="AE6">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI6" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ6" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1086,9 +1160,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1098,82 +1169,97 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" si="15"/>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="16"/>
+      <c r="R7" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S7" t="str">
-        <f t="shared" si="17"/>
+      <c r="T7" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T7" t="str">
-        <f t="shared" si="4"/>
+      <c r="U7" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U7" t="str">
-        <f t="shared" si="18"/>
+      <c r="V7" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V7" t="str">
-        <f t="shared" si="5"/>
+      <c r="W7" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W7" t="str">
-        <f t="shared" si="19"/>
+      <c r="X7" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X7" t="str">
+      <c r="Y7" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y7" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z7" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" t="str">
+      <c r="AA7">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" t="str">
+      <c r="AC7">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" t="str">
+      <c r="AE7">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF7">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI7" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1183,9 +1269,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -1195,82 +1278,97 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" si="15"/>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="16"/>
+      <c r="R8" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S8" t="str">
-        <f t="shared" si="17"/>
+      <c r="T8" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T8" t="str">
-        <f t="shared" si="4"/>
+      <c r="U8" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U8" t="str">
-        <f t="shared" si="18"/>
+      <c r="V8" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V8" t="str">
-        <f t="shared" si="5"/>
+      <c r="W8" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W8" t="str">
-        <f t="shared" si="19"/>
+      <c r="X8" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X8" t="str">
+      <c r="Y8" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y8" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z8" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" t="str">
+      <c r="AA8">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" t="str">
+      <c r="AC8">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" t="str">
+      <c r="AE8">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI8" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1280,9 +1378,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1292,82 +1387,97 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" si="15"/>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="16"/>
+      <c r="R9" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S9" t="str">
-        <f t="shared" si="17"/>
+      <c r="T9" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T9" t="str">
-        <f t="shared" si="4"/>
+      <c r="U9" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U9" t="str">
-        <f t="shared" si="18"/>
+      <c r="V9" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V9" t="str">
-        <f t="shared" si="5"/>
+      <c r="W9" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W9" t="str">
-        <f t="shared" si="19"/>
+      <c r="X9" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X9" t="str">
+      <c r="Y9" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y9" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z9" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" t="str">
+      <c r="AA9">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" t="str">
+      <c r="AC9">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" t="str">
+      <c r="AE9">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI9" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1377,9 +1487,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1389,82 +1496,97 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" si="15"/>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="16"/>
+      <c r="R10" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S10" t="str">
-        <f t="shared" si="17"/>
+      <c r="T10" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T10" t="str">
-        <f t="shared" si="4"/>
+      <c r="U10" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U10" t="str">
-        <f t="shared" si="18"/>
+      <c r="V10" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V10" t="str">
-        <f t="shared" si="5"/>
+      <c r="W10" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W10" t="str">
-        <f t="shared" si="19"/>
+      <c r="X10" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X10" t="str">
+      <c r="Y10" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z10" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" t="str">
+      <c r="AA10">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" t="str">
+      <c r="AC10">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" t="str">
+      <c r="AE10">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF10">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1474,9 +1596,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -1486,86 +1605,101 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" si="15"/>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="16"/>
+      <c r="R11" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="S11" t="str">
-        <f t="shared" si="17"/>
+      <c r="T11" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T11" t="str">
-        <f t="shared" si="4"/>
+      <c r="U11" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U11" t="str">
-        <f t="shared" si="18"/>
+      <c r="V11" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V11" t="str">
-        <f t="shared" si="5"/>
+      <c r="W11" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W11" t="str">
-        <f t="shared" si="19"/>
+      <c r="X11" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X11" t="str">
+      <c r="Y11" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y11" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z11" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" t="str">
+      <c r="AA11">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" t="str">
+      <c r="AC11">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" t="str">
+      <c r="AE11">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI11" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -1575,13 +1709,13 @@
         <v xml:space="preserve">需要 金錢×1000  木頭×500   \n金屬×500   水泥×500   </v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
         <v>1000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>500</v>
       </c>
       <c r="H12" s="1">
         <v>500</v>
@@ -1589,82 +1723,97 @@
       <c r="I12" s="1">
         <v>500</v>
       </c>
-      <c r="P12" t="str">
-        <f t="shared" si="15"/>
+      <c r="J12" s="1">
+        <v>500</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v>一級房屋</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="16"/>
+      <c r="R12" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S12" t="str">
-        <f t="shared" si="17"/>
+      <c r="T12" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T12" t="str">
-        <f t="shared" si="4"/>
+      <c r="U12" t="str">
+        <f t="shared" si="5"/>
         <v>教堂</v>
       </c>
-      <c r="U12" t="str">
-        <f t="shared" si="18"/>
+      <c r="V12" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V12" t="str">
-        <f t="shared" si="5"/>
+      <c r="W12" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×1000  木頭×500   \n金屬×500   水泥×500   \n前置 一級房屋</v>
       </c>
-      <c r="W12" t="str">
-        <f t="shared" si="19"/>
+      <c r="X12" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X12" t="str">
+      <c r="Y12" t="str">
         <f t="shared" si="1"/>
         <v>Icon/Church</v>
       </c>
-      <c r="Y12" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z12" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z12">
-        <f t="shared" si="7"/>
+      <c r="AA12">
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AA12" t="str">
-        <f t="shared" si="8"/>
+      <c r="AB12" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB12">
-        <f t="shared" si="9"/>
+      <c r="AC12">
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="10"/>
+      <c r="AD12" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD12">
-        <f t="shared" si="11"/>
+      <c r="AE12">
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
-      <c r="AE12" t="str">
-        <f t="shared" si="12"/>
+      <c r="AF12" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF12">
-        <f t="shared" si="13"/>
+      <c r="AG12">
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
-      <c r="AG12" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AH12" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI12" t="str">
+        <f t="shared" si="16"/>
+        <v>一級房屋</v>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1674,9 +1823,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -1686,82 +1832,97 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="P13" t="str">
-        <f t="shared" si="15"/>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="16"/>
+      <c r="R13" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="S13" t="str">
-        <f t="shared" si="17"/>
+      <c r="T13" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T13" t="str">
-        <f t="shared" si="4"/>
+      <c r="U13" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U13" t="str">
-        <f t="shared" si="18"/>
+      <c r="V13" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V13" t="str">
-        <f t="shared" si="5"/>
+      <c r="W13" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W13" t="str">
-        <f t="shared" si="19"/>
+      <c r="X13" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X13" t="str">
+      <c r="Y13" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y13" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z13" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" t="str">
+      <c r="AA13">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" t="str">
+      <c r="AC13">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" t="str">
+      <c r="AE13">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1771,9 +1932,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -1783,82 +1941,97 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" si="15"/>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="16"/>
+      <c r="R14" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="S14" t="str">
-        <f t="shared" si="17"/>
+      <c r="T14" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T14" t="str">
-        <f t="shared" si="4"/>
+      <c r="U14" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U14" t="str">
-        <f t="shared" si="18"/>
+      <c r="V14" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V14" t="str">
-        <f t="shared" si="5"/>
+      <c r="W14" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W14" t="str">
-        <f t="shared" si="19"/>
+      <c r="X14" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X14" t="str">
+      <c r="Y14" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y14" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z14" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" t="str">
+      <c r="AA14">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" t="str">
+      <c r="AC14">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" t="str">
+      <c r="AE14">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI14" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1868,9 +2041,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -1880,82 +2050,97 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="P15" t="str">
-        <f t="shared" si="15"/>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="16"/>
+      <c r="R15" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="S15" t="str">
-        <f t="shared" si="17"/>
+      <c r="T15" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T15" t="str">
-        <f t="shared" si="4"/>
+      <c r="U15" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U15" t="str">
-        <f t="shared" si="18"/>
+      <c r="V15" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V15" t="str">
-        <f t="shared" si="5"/>
+      <c r="W15" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W15" t="str">
-        <f t="shared" si="19"/>
+      <c r="X15" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X15" t="str">
+      <c r="Y15" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y15" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z15" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" t="str">
+      <c r="AA15">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" t="str">
+      <c r="AC15">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" t="str">
+      <c r="AE15">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI15" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ15" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1965,9 +2150,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -1977,82 +2159,97 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="P16" t="str">
-        <f t="shared" si="15"/>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="16"/>
+      <c r="R16" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S16" t="str">
-        <f t="shared" si="17"/>
+      <c r="T16" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T16" t="str">
-        <f t="shared" si="4"/>
+      <c r="U16" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U16" t="str">
-        <f t="shared" si="18"/>
+      <c r="V16" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V16" t="str">
-        <f t="shared" si="5"/>
+      <c r="W16" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W16" t="str">
-        <f t="shared" si="19"/>
+      <c r="X16" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X16" t="str">
+      <c r="Y16" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y16" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z16" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" t="str">
+      <c r="AA16">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" t="str">
+      <c r="AC16">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" t="str">
+      <c r="AE16">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI16" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ16" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -2062,9 +2259,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2074,82 +2268,97 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" si="15"/>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="16"/>
+      <c r="R17" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S17" t="str">
-        <f t="shared" si="17"/>
+      <c r="T17" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T17" t="str">
-        <f t="shared" si="4"/>
+      <c r="U17" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U17" t="str">
-        <f t="shared" si="18"/>
+      <c r="V17" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V17" t="str">
-        <f t="shared" si="5"/>
+      <c r="W17" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W17" t="str">
-        <f t="shared" si="19"/>
+      <c r="X17" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X17" t="str">
+      <c r="Y17" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y17" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z17" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" t="str">
+      <c r="AA17">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" t="str">
+      <c r="AC17">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" t="str">
+      <c r="AE17">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ17" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -2159,9 +2368,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2171,82 +2377,97 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="P18" t="str">
-        <f t="shared" si="15"/>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="16"/>
+      <c r="R18" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S18" t="str">
-        <f t="shared" si="17"/>
+      <c r="T18" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T18" t="str">
-        <f t="shared" si="4"/>
+      <c r="U18" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U18" t="str">
-        <f t="shared" si="18"/>
+      <c r="V18" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V18" t="str">
-        <f t="shared" si="5"/>
+      <c r="W18" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W18" t="str">
-        <f t="shared" si="19"/>
+      <c r="X18" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X18" t="str">
+      <c r="Y18" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y18" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z18" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" t="str">
+      <c r="AA18">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" t="str">
+      <c r="AC18">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" t="str">
+      <c r="AE18">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI18" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ18" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -2256,9 +2477,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -2268,82 +2486,97 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="P19" t="str">
-        <f t="shared" si="15"/>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="16"/>
+      <c r="R19" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S19" t="str">
-        <f t="shared" si="17"/>
+      <c r="T19" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T19" t="str">
-        <f t="shared" si="4"/>
+      <c r="U19" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U19" t="str">
-        <f t="shared" si="18"/>
+      <c r="V19" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V19" t="str">
-        <f t="shared" si="5"/>
+      <c r="W19" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W19" t="str">
-        <f t="shared" si="19"/>
+      <c r="X19" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X19" t="str">
+      <c r="Y19" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z19" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" t="str">
+      <c r="AA19">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" t="str">
+      <c r="AC19">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" t="str">
+      <c r="AE19">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI19" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ19" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -2353,9 +2586,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -2365,82 +2595,97 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="P20" t="str">
-        <f t="shared" si="15"/>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="16"/>
+      <c r="R20" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S20" t="str">
-        <f t="shared" si="17"/>
+      <c r="T20" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T20" t="str">
-        <f t="shared" si="4"/>
+      <c r="U20" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U20" t="str">
-        <f t="shared" si="18"/>
+      <c r="V20" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V20" t="str">
-        <f t="shared" si="5"/>
+      <c r="W20" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W20" t="str">
-        <f t="shared" si="19"/>
+      <c r="X20" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X20" t="str">
+      <c r="Y20" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y20" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z20" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" t="str">
+      <c r="AA20">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" t="str">
+      <c r="AC20">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" t="str">
+      <c r="AE20">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG20">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI20" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ20" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -2450,9 +2695,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -2462,86 +2704,101 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="P21" t="str">
-        <f t="shared" si="15"/>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="16"/>
+      <c r="R21" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="S21" t="str">
-        <f t="shared" si="17"/>
+      <c r="T21" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T21" t="str">
-        <f t="shared" si="4"/>
+      <c r="U21" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U21" t="str">
-        <f t="shared" si="18"/>
+      <c r="V21" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V21" t="str">
-        <f t="shared" si="5"/>
+      <c r="W21" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W21" t="str">
-        <f t="shared" si="19"/>
+      <c r="X21" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X21" t="str">
+      <c r="Y21" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y21" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z21" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" t="str">
+      <c r="AA21">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" t="str">
+      <c r="AC21">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" t="str">
+      <c r="AE21">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI21" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ21" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
@@ -2550,94 +2807,106 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×250   木頭×0   \n金屬×50   水泥×500   </v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>250</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
       <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
         <v>50</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>500</v>
       </c>
-      <c r="P22" t="str">
-        <f t="shared" si="15"/>
+      <c r="K22" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="16"/>
+      <c r="R22" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="S22" t="str">
-        <f t="shared" si="17"/>
+      <c r="T22" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T22" t="str">
-        <f t="shared" si="4"/>
+      <c r="U22" t="str">
+        <f t="shared" si="5"/>
         <v>噴水池</v>
       </c>
-      <c r="U22" t="str">
-        <f t="shared" si="18"/>
+      <c r="V22" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V22" t="str">
-        <f t="shared" si="5"/>
+      <c r="W22" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×250   木頭×0   \n金屬×50   水泥×500   \n</v>
       </c>
-      <c r="W22" t="str">
-        <f t="shared" si="19"/>
+      <c r="X22" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X22" t="str">
+      <c r="Y22" t="str">
         <f t="shared" si="1"/>
         <v>Icon/Fountain</v>
       </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z22" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z22">
-        <f t="shared" si="7"/>
+      <c r="AA22">
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="AA22" t="str">
-        <f t="shared" si="8"/>
+      <c r="AB22" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB22">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" t="str">
+      <c r="AC22">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD22">
-        <f t="shared" si="11"/>
+      <c r="AE22">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="AE22" t="str">
-        <f t="shared" si="12"/>
+      <c r="AF22" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF22">
-        <f t="shared" si="13"/>
+      <c r="AG22">
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
-      <c r="AG22" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AH22" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI22" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ22" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -2647,9 +2916,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -2659,82 +2925,97 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="P23" t="str">
-        <f t="shared" si="15"/>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="16"/>
+      <c r="R23" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="S23" t="str">
-        <f t="shared" si="17"/>
+      <c r="T23" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T23" t="str">
-        <f t="shared" si="4"/>
+      <c r="U23" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U23" t="str">
-        <f t="shared" si="18"/>
+      <c r="V23" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V23" t="str">
-        <f t="shared" si="5"/>
+      <c r="W23" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W23" t="str">
-        <f t="shared" si="19"/>
+      <c r="X23" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X23" t="str">
+      <c r="Y23" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y23" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z23" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" t="str">
+      <c r="AA23">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" t="str">
+      <c r="AC23">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" t="str">
+      <c r="AE23">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI23" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ23" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -2744,9 +3025,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -2756,82 +3034,97 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="P24" t="str">
-        <f t="shared" si="15"/>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="16"/>
+      <c r="R24" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="S24" t="str">
-        <f t="shared" si="17"/>
+      <c r="T24" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T24" t="str">
-        <f t="shared" si="4"/>
+      <c r="U24" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U24" t="str">
-        <f t="shared" si="18"/>
+      <c r="V24" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V24" t="str">
-        <f t="shared" si="5"/>
+      <c r="W24" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W24" t="str">
-        <f t="shared" si="19"/>
+      <c r="X24" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X24" t="str">
+      <c r="Y24" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z24" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" t="str">
+      <c r="AA24">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" t="str">
+      <c r="AC24">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD24">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" t="str">
+      <c r="AE24">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF24">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI24" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ24" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -2841,9 +3134,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -2853,82 +3143,97 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="P25" t="str">
-        <f t="shared" si="15"/>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="16"/>
+      <c r="R25" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="S25" t="str">
-        <f t="shared" si="17"/>
+      <c r="T25" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T25" t="str">
-        <f t="shared" si="4"/>
+      <c r="U25" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U25" t="str">
-        <f t="shared" si="18"/>
+      <c r="V25" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V25" t="str">
-        <f t="shared" si="5"/>
+      <c r="W25" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W25" t="str">
-        <f t="shared" si="19"/>
+      <c r="X25" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X25" t="str">
+      <c r="Y25" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y25" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z25" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" t="str">
+      <c r="AA25">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB25">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" t="str">
+      <c r="AC25">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD25">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" t="str">
+      <c r="AE25">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG25">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI25" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ25" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -2938,9 +3243,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -2950,82 +3252,97 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="P26" t="str">
-        <f t="shared" si="15"/>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="16"/>
+      <c r="R26" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="S26" t="str">
-        <f t="shared" si="17"/>
+      <c r="T26" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T26" t="str">
-        <f t="shared" si="4"/>
+      <c r="U26" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U26" t="str">
-        <f t="shared" si="18"/>
+      <c r="V26" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V26" t="str">
-        <f t="shared" si="5"/>
+      <c r="W26" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W26" t="str">
-        <f t="shared" si="19"/>
+      <c r="X26" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X26" t="str">
+      <c r="Y26" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y26" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z26" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z26">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" t="str">
+      <c r="AA26">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB26">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" t="str">
+      <c r="AC26">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" t="str">
+      <c r="AE26">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI26" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ26" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -3035,9 +3352,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -3047,82 +3361,97 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="P27" t="str">
-        <f t="shared" si="15"/>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="16"/>
+      <c r="R27" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="S27" t="str">
-        <f t="shared" si="17"/>
+      <c r="T27" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T27" t="str">
-        <f t="shared" si="4"/>
+      <c r="U27" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U27" t="str">
-        <f t="shared" si="18"/>
+      <c r="V27" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V27" t="str">
-        <f t="shared" si="5"/>
+      <c r="W27" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W27" t="str">
-        <f t="shared" si="19"/>
+      <c r="X27" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X27" t="str">
+      <c r="Y27" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y27" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z27" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" t="str">
+      <c r="AA27">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" t="str">
+      <c r="AC27">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD27">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" t="str">
+      <c r="AE27">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI27" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ27" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -3132,9 +3461,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
@@ -3144,82 +3470,97 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="P28" t="str">
-        <f t="shared" si="15"/>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="16"/>
+      <c r="R28" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="S28" t="str">
-        <f t="shared" si="17"/>
+      <c r="T28" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T28" t="str">
-        <f t="shared" si="4"/>
+      <c r="U28" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U28" t="str">
-        <f t="shared" si="18"/>
+      <c r="V28" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V28" t="str">
-        <f t="shared" si="5"/>
+      <c r="W28" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W28" t="str">
-        <f t="shared" si="19"/>
+      <c r="X28" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X28" t="str">
+      <c r="Y28" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y28" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z28" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" t="str">
+      <c r="AA28">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB28">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" t="str">
+      <c r="AC28">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" t="str">
+      <c r="AE28">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI28" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ28" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ref="A29:A31" si="21">A28+1</f>
+        <f t="shared" ref="A29:A31" si="24">A28+1</f>
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -3229,9 +3570,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -3241,94 +3579,106 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="P29" t="str">
-        <f t="shared" si="15"/>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="16"/>
+      <c r="R29" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="S29" t="str">
-        <f t="shared" si="17"/>
+      <c r="T29" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T29" t="str">
-        <f t="shared" si="4"/>
+      <c r="U29" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U29" t="str">
-        <f t="shared" si="18"/>
+      <c r="V29" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V29" t="str">
-        <f t="shared" si="5"/>
+      <c r="W29" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W29" t="str">
-        <f t="shared" si="19"/>
+      <c r="X29" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X29" t="str">
+      <c r="Y29" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y29" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z29" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" t="str">
+      <c r="AA29">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" t="str">
+      <c r="AC29">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" t="str">
+      <c r="AE29">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI29" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ29" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="str">
-        <f>CONCATENATE("需要 金錢×",LEFT(F30&amp;"   ",6),"木頭×",LEFT(G30&amp;"   ",6),"\n金屬×",LEFT(H30&amp;"   ",6),"水泥×",LEFT(I30&amp;"   ",6))</f>
+        <f>CONCATENATE("需要 金錢×",LEFT(G30&amp;"   ",6),"木頭×",LEFT(H30&amp;"   ",6),"\n金屬×",LEFT(I30&amp;"   ",6),"水泥×",LEFT(J30&amp;"   ",6))</f>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -3338,82 +3688,97 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="P30" t="str">
-        <f t="shared" si="15"/>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="16"/>
+      <c r="R30" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="S30" t="str">
-        <f t="shared" si="17"/>
+      <c r="T30" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T30" t="str">
-        <f t="shared" si="4"/>
+      <c r="U30" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U30" t="str">
-        <f t="shared" si="18"/>
+      <c r="V30" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V30" t="str">
-        <f t="shared" si="5"/>
+      <c r="W30" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W30" t="str">
-        <f t="shared" si="19"/>
+      <c r="X30" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X30" t="str">
+      <c r="Y30" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y30" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z30" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" t="str">
+      <c r="AA30">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" t="str">
+      <c r="AC30">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" t="str">
+      <c r="AE30">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF30">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI30" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ30" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -3423,9 +3788,6 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">需要 金錢×0   木頭×0   \n金屬×0   水泥×0   </v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
@@ -3435,82 +3797,97 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="P31" t="str">
-        <f t="shared" si="15"/>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v>空地</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="18"/>
         <v>,</v>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="16"/>
+      <c r="R31" t="str">
+        <f t="shared" si="19"/>
         <v>{"ID":</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="S31" t="str">
-        <f t="shared" si="17"/>
+      <c r="T31" t="str">
+        <f t="shared" si="20"/>
         <v>,"Title":"</v>
       </c>
-      <c r="T31" t="str">
-        <f t="shared" si="4"/>
+      <c r="U31" t="str">
+        <f t="shared" si="5"/>
         <v>NULL</v>
       </c>
-      <c r="U31" t="str">
-        <f t="shared" si="18"/>
+      <c r="V31" t="str">
+        <f t="shared" si="21"/>
         <v>","Document":"</v>
       </c>
-      <c r="V31" t="str">
-        <f t="shared" si="5"/>
+      <c r="W31" t="str">
+        <f t="shared" si="6"/>
         <v>需要 金錢×0   木頭×0   \n金屬×0   水泥×0   \n</v>
       </c>
-      <c r="W31" t="str">
-        <f t="shared" si="19"/>
+      <c r="X31" t="str">
+        <f t="shared" si="22"/>
         <v>","Icon":"</v>
       </c>
-      <c r="X31" t="str">
+      <c r="Y31" t="str">
         <f t="shared" si="1"/>
         <v>Icon/House</v>
       </c>
-      <c r="Y31" t="str">
-        <f t="shared" si="6"/>
+      <c r="Z31" t="str">
+        <f t="shared" si="7"/>
         <v>","Coin":</v>
       </c>
-      <c r="Z31">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" t="str">
+      <c r="AA31">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="9"/>
         <v>,"Wood":</v>
       </c>
-      <c r="AB31">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" t="str">
+      <c r="AC31">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="11"/>
         <v>,"Metal":</v>
       </c>
-      <c r="AD31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" t="str">
+      <c r="AE31">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" t="str">
+        <f t="shared" si="13"/>
         <v>,"Concrete":</v>
       </c>
-      <c r="AF31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" t="str">
-        <f t="shared" si="20"/>
-        <v>}</v>
+      <c r="AG31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" t="str">
+        <f t="shared" si="15"/>
+        <v>,"BuildOn":"</v>
+      </c>
+      <c r="AI31" t="str">
+        <f t="shared" si="16"/>
+        <v>空地</v>
+      </c>
+      <c r="AJ31" t="str">
+        <f t="shared" si="23"/>
+        <v>"}</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="P32" t="str">
-        <f t="shared" si="15"/>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Q32" t="str">
+        <f t="shared" si="18"/>
         <v>]</v>
       </c>
     </row>
